--- a/patient_data/patient_36.xlsx
+++ b/patient_data/patient_36.xlsx
@@ -690,16 +690,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -767,16 +767,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -921,31 +921,31 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -998,16 +998,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1466,22 +1466,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1522,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1543,22 +1543,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1620,22 +1620,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1697,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1771,22 +1771,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1848,10 +1848,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
